--- a/final/tests/4.3.4_test_set.xlsx
+++ b/final/tests/4.3.4_test_set.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gagefleming/university_of_london/current_courses/agile_software_projects/cm2020/final/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD75355-68A6-6C4F-BEC0-8F6A22321882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F4E65C-3F00-F74C-8314-C7210DDE26B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4.3.4 (Feb 2nd)" sheetId="8" r:id="rId1"/>
-    <sheet name="4.3.4 (EMPTY)" sheetId="4" r:id="rId2"/>
+    <sheet name="4.3.4 (Mar 2nd)" sheetId="9" r:id="rId2"/>
+    <sheet name="4.3.4 (EMPTY)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="66">
   <si>
     <t>Objective and Priority</t>
   </si>
@@ -187,9 +188,6 @@
     <t>Continue to test 4.3.4.2.1.4</t>
   </si>
   <si>
-    <t>Continue to test 4.3.4.2.1.5</t>
-  </si>
-  <si>
     <t>4.3.4.2.1.1 Whitelist.Verify.RetreiveURL</t>
   </si>
   <si>
@@ -224,6 +222,9 @@
   </si>
   <si>
     <t>Alert popped up</t>
+  </si>
+  <si>
+    <t>FINISHED</t>
   </si>
 </sst>
 </file>
@@ -321,18 +322,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -344,6 +333,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,9 +435,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -474,7 +475,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -580,7 +581,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -722,7 +723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -732,211 +733,211 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2658627D-5BD5-3A40-AF6A-118228B45D51}">
   <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="20" style="10" customWidth="1"/>
-    <col min="6" max="7" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="24.5" style="10" customWidth="1"/>
-    <col min="11" max="11" width="28.5" style="10" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5" style="10" customWidth="1"/>
-    <col min="16" max="16" width="23" style="10" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" style="10" customWidth="1"/>
-    <col min="18" max="18" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.6640625" style="10" customWidth="1"/>
-    <col min="22" max="22" width="25.5" style="10" customWidth="1"/>
-    <col min="23" max="23" width="36.1640625" style="10" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" style="10"/>
-    <col min="26" max="26" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.5" style="10" customWidth="1"/>
-    <col min="28" max="28" width="27.5" style="10" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" style="10"/>
-    <col min="30" max="30" width="17.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="11.6640625" style="10"/>
+    <col min="1" max="1" width="3.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20" style="6" customWidth="1"/>
+    <col min="6" max="7" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="24.5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="28.5" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5" style="6" customWidth="1"/>
+    <col min="16" max="16" width="23" style="6" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.6640625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="25.5" style="6" customWidth="1"/>
+    <col min="23" max="23" width="36.1640625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" style="6"/>
+    <col min="26" max="26" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.5" style="6" customWidth="1"/>
+    <col min="28" max="28" width="27.5" style="6" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" style="6"/>
+    <col min="30" max="30" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="11.6640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="H4" s="9" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="N4" s="9" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="N4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
     </row>
     <row r="5" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
       <c r="L6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
       <c r="R6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="H7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="N7" s="7" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="N7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="H8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="N8" s="5" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="N8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
     </row>
     <row r="9" spans="2:18" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
@@ -996,10 +997,10 @@
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -1008,13 +1009,13 @@
         <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>60</v>
+      <c r="L10" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="N10" s="2">
         <v>1</v>
@@ -1026,10 +1027,10 @@
         <v>42</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="84" x14ac:dyDescent="0.15">
@@ -1043,10 +1044,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H11" s="2">
         <v>2</v>
@@ -1055,13 +1056,13 @@
         <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>60</v>
+      <c r="L11" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="N11" s="2">
         <v>2</v>
@@ -1073,10 +1074,10 @@
         <v>44</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:18" ht="70" x14ac:dyDescent="0.15">
@@ -1090,10 +1091,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H12" s="2">
         <v>3</v>
@@ -1102,13 +1103,13 @@
         <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>60</v>
+      <c r="L12" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="N12" s="2">
         <v>3</v>
@@ -1120,10 +1121,10 @@
         <v>46</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:18" ht="84" x14ac:dyDescent="0.15">
@@ -1137,10 +1138,10 @@
         <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H13" s="2">
         <v>4</v>
@@ -1149,13 +1150,13 @@
         <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>60</v>
+      <c r="L13" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="N13" s="2">
         <v>4</v>
@@ -1167,134 +1168,134 @@
         <v>48</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="H14" s="7" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="H14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="N14" s="7" t="s">
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="N14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="H16" s="9" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="H16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
       <c r="L17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="28" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
       <c r="L18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="H19" s="7" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="H19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="H20" s="5" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="H20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
@@ -1339,10 +1340,10 @@
         <v>31</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
@@ -1354,10 +1355,10 @@
         <v>36</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="56" x14ac:dyDescent="0.15">
@@ -1371,10 +1372,10 @@
         <v>32</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H23" s="2">
         <v>2</v>
@@ -1386,10 +1387,10 @@
         <v>38</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="42" x14ac:dyDescent="0.15">
@@ -1403,10 +1404,10 @@
         <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="1"/>
@@ -1425,10 +1426,10 @@
         <v>34</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="1"/>
@@ -1437,20 +1438,777 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="H26" s="7" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="H26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="O6:Q6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FD3C60-F01E-5744-B0C7-6AE0B46E0B8D}">
+  <dimension ref="B1:R26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20" style="6" customWidth="1"/>
+    <col min="6" max="7" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="24.5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="28.5" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5" style="6" customWidth="1"/>
+    <col min="16" max="16" width="23" style="6" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.6640625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="25.5" style="6" customWidth="1"/>
+    <col min="23" max="23" width="36.1640625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" style="6"/>
+    <col min="26" max="26" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.5" style="6" customWidth="1"/>
+    <col min="28" max="28" width="27.5" style="6" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" style="6"/>
+    <col min="30" max="30" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="11.6640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="N4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="C6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="N7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="N8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="2:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="126" x14ac:dyDescent="0.15">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="84" x14ac:dyDescent="0.15">
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="70" x14ac:dyDescent="0.15">
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="2">
+        <v>3</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="84" x14ac:dyDescent="0.15">
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="2">
+        <v>4</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="H14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="N14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="H16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="28" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="H19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="H20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="2:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="B21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="56" x14ac:dyDescent="0.15">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="56" x14ac:dyDescent="0.15">
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="42" x14ac:dyDescent="0.15">
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="2:12" ht="42" x14ac:dyDescent="0.15">
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="H26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -1485,215 +2243,215 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9592081E-B80D-4E9B-8A22-A8CCF80B34DE}">
   <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14:R14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="20" style="10" customWidth="1"/>
-    <col min="6" max="7" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="24.5" style="10" customWidth="1"/>
-    <col min="11" max="11" width="28.5" style="10" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5" style="10" customWidth="1"/>
-    <col min="16" max="16" width="23" style="10" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" style="10" customWidth="1"/>
-    <col min="18" max="18" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.6640625" style="10" customWidth="1"/>
-    <col min="22" max="22" width="25.5" style="10" customWidth="1"/>
-    <col min="23" max="23" width="36.1640625" style="10" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" style="10"/>
-    <col min="26" max="26" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.5" style="10" customWidth="1"/>
-    <col min="28" max="28" width="27.5" style="10" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" style="10"/>
-    <col min="30" max="30" width="17.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="11.6640625" style="10"/>
+    <col min="1" max="1" width="3.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20" style="6" customWidth="1"/>
+    <col min="6" max="7" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="24.5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="28.5" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5" style="6" customWidth="1"/>
+    <col min="16" max="16" width="23" style="6" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.6640625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="25.5" style="6" customWidth="1"/>
+    <col min="23" max="23" width="36.1640625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" style="6"/>
+    <col min="26" max="26" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.5" style="6" customWidth="1"/>
+    <col min="28" max="28" width="27.5" style="6" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" style="6"/>
+    <col min="30" max="30" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="11.6640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="H4" s="9" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="N4" s="9" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="N4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
     </row>
     <row r="5" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
       <c r="L6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
       <c r="R6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="H7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="N7" s="7" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="N7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="H8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="N8" s="5" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="N8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
     </row>
     <row r="9" spans="2:18" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
@@ -1907,127 +2665,127 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="H14" s="7" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="H14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="N14" s="7" t="s">
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="N14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="H16" s="9" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="H16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
       <c r="L17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="28" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
       <c r="L18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="H19" s="7" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="H19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="H20" s="5" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="H20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
@@ -2158,20 +2916,20 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="H26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="H26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -2182,25 +2940,25 @@
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="H7:L7"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H26:L26"/>
     <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="I6:K6"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="H19:L19"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="N7:R7"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="H14:L14"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
